--- a/thesis/portfolio.xlsx
+++ b/thesis/portfolio.xlsx
@@ -9,13 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Settlement Date</t>
   </si>
@@ -32,19 +33,43 @@
     <t>Reset</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>28-07-2016</t>
   </si>
   <si>
     <t>28-07-2019</t>
   </si>
   <si>
+    <t>Payer</t>
+  </si>
+  <si>
     <t>28-07-2017</t>
   </si>
   <si>
-    <t>28-10-2021</t>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
   </si>
   <si>
     <t>28-04-2018</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>28-07-2018</t>
+  </si>
+  <si>
+    <t>28-07-2020</t>
   </si>
 </sst>
 </file>
@@ -146,7 +171,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,10 +252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -256,73 +281,88 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1256</v>
+        <v>120056</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3459</v>
+        <v>345900</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>859</v>
+        <v>85900</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -334,4 +374,98 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>